--- a/data/HR1/A_KPC_35_1/A_KPC_35_1_2020.xlsx
+++ b/data/HR1/A_KPC_35_1/A_KPC_35_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B431D56E-53FF-4A9C-AE7A-DD66880C07E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD95813A-596A-4714-A1B6-B9D2FC5E54B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30345" yWindow="-10995" windowWidth="15750" windowHeight="9300" tabRatio="722" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -50852,8 +50852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A948917B-A1BA-448C-87DD-A0FBB0EAE3DA}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53039,8 +53039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D4FD3-4E6B-4832-B159-4E067DAE6C14}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
